--- a/1.2.xlsx
+++ b/1.2.xlsx
@@ -8,102 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naomi.wada\develope\software-test-drill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219D2B62-7A3A-4DA6-B2BE-0579B010D8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9022793-6890-4120-9388-59A75EE176A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>温度(入力値)</t>
-    <rPh sb="0" eb="2">
-      <t>オンド</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メッセージ(期待結果)</t>
-    <rPh sb="6" eb="10">
-      <t>キタイケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>寒い</t>
-    <rPh sb="0" eb="1">
-      <t>サム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>快適</t>
-    <rPh sb="0" eb="2">
-      <t>カイテキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>暑い</t>
-    <rPh sb="0" eb="1">
-      <t>アツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>寒いの上限</t>
-    <rPh sb="0" eb="1">
-      <t>サム</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>快適の境界値(上限)</t>
-    <rPh sb="3" eb="6">
-      <t>キョウカイチ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>快適の境界値(下限)</t>
-    <rPh sb="3" eb="6">
-      <t>キョウカイチ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>暑いの加減</t>
-    <rPh sb="0" eb="1">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>テストデータを選んだ理由</t>
     <rPh sb="7" eb="8">
@@ -111,6 +44,111 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重さ(入力値)</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示(期待結果)</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>キタイケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EEEE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-10g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-1g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2001g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有効クラスの代表値</t>
+    <rPh sb="0" eb="2">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ダイヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無効クラスの代表値</t>
+    <rPh sb="0" eb="2">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ダイヒョウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有効クラスの境界値(下限)</t>
+    <rPh sb="6" eb="9">
+      <t>キョウカイチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有効クラスの境界値(上限)</t>
+    <rPh sb="6" eb="9">
+      <t>キョウカイチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2500g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無効クラスの境界値</t>
+    <rPh sb="0" eb="2">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>キョウカイチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -120,7 +158,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -146,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -154,13 +192,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -441,71 +498,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="12.58203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>23.9</v>
+      <c r="A2" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>25.9</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B6">
+        <v>2000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
